--- a/MPM/需求文件/预算导出模板.xlsx
+++ b/MPM/需求文件/预算导出模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>序号</t>
   </si>
@@ -37,9 +37,6 @@
     <t>负责人</t>
   </si>
   <si>
-    <t>负责人账号ID</t>
-  </si>
-  <si>
     <t>项目负责人</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
   <si>
     <t>剩余预算金额</t>
   </si>
-  <si>
-    <t>委派人（委派人账号id）</t>
-  </si>
 </sst>
 </file>
 
@@ -71,7 +65,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,11 +74,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -230,8 +236,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +258,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -408,12 +444,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,12 +455,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,31 +576,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,128 +611,162 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyFill="0">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyFill="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
@@ -735,7 +816,22 @@
     <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="任务" xfId="49"/>
+    <cellStyle name="z隐藏文本" xfId="50"/>
+    <cellStyle name="姓名" xfId="51"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1003,75 +1099,128 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J9" sqref="J9:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9.33333333333333" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="11.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="14.6666666666667" customWidth="1"/>
-    <col min="7" max="10" width="15.5833333333333" customWidth="1"/>
-    <col min="11" max="11" width="19.75" customWidth="1"/>
-    <col min="12" max="14" width="15.5833333333333" customWidth="1"/>
+    <col min="7" max="8" width="15.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="10" max="10" width="19.75" customWidth="1"/>
+    <col min="11" max="13" width="15.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:14">
+    <row r="1" ht="18" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="11:11">
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
+    <row r="2" ht="17.25" spans="1:13">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:13">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:13">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C4">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
